--- a/PurchasingManager/QuanLyThuMua/Templates/TemplateBill.xlsx
+++ b/PurchasingManager/QuanLyThuMua/Templates/TemplateBill.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCompany\8.SourceCode\3.Projects\20220210PurchasingManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCompany\8.SourceCode\3.Projects\20220210PurchasingManager\PurchasingManager\QuanLyThuMua\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DD66F33-7E30-48C0-AB16-4D6E59852D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873823F9-0D7A-4B84-9562-21FADD42EFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{03265181-52AB-419C-9215-E3FDA5CED056}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ĐẠI LÝ THU MUA NÔNG SẢN HAI HỔ</t>
   </si>
@@ -62,15 +62,9 @@
     <t>Tên hàng:</t>
   </si>
   <si>
-    <t>Khối lượng (Kg)</t>
-  </si>
-  <si>
     <t>Số độ:</t>
   </si>
   <si>
-    <t>Đơn giá (VNĐ):</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Tổng số tiền: </t>
   </si>
   <si>
@@ -78,6 +72,24 @@
   </si>
   <si>
     <t>Xác nhận bên thu mua</t>
+  </si>
+  <si>
+    <t>Cao su</t>
+  </si>
+  <si>
+    <t>01231231313</t>
+  </si>
+  <si>
+    <t>HCM</t>
+  </si>
+  <si>
+    <t>Khối lượng (Kg):</t>
+  </si>
+  <si>
+    <t>Đơn giá:</t>
+  </si>
+  <si>
+    <t>Nguyen</t>
   </si>
 </sst>
 </file>
@@ -146,25 +158,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,249 +494,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4343704-E0CB-472E-8DF4-8A0EC50ECAD0}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="8">
         <v>44612.5</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="5">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
+      <c r="G15" s="5">
         <v>10</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="5">
+        <v>100000</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A12:H12"/>
+  <mergeCells count="6">
+    <mergeCell ref="A8:H8"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
